--- a/Auswertung_tests.xlsx
+++ b/Auswertung_tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="980" windowWidth="35060" windowHeight="15520"/>
+    <workbookView xWindow="500" yWindow="560" windowWidth="28120" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="2" r:id="rId1"/>
@@ -17,11 +17,17 @@
     <sheet name="Test_JH_02" sheetId="3" r:id="rId3"/>
     <sheet name="Test_JH_03" sheetId="4" r:id="rId4"/>
     <sheet name="Test_JH_04" sheetId="5" r:id="rId5"/>
+    <sheet name="Test_JH_05" sheetId="6" r:id="rId6"/>
+    <sheet name="Test_JH_06" sheetId="7" r:id="rId7"/>
+    <sheet name="Test_JH_07" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="java_Failed_Tests_first_20160319_090933" localSheetId="4">Test_JH_04!$A$1:$D$86</definedName>
     <definedName name="java20160318_212736" localSheetId="2">Test_JH_02!$A$1:$D$86</definedName>
     <definedName name="java20160318_221530" localSheetId="3">Test_JH_03!$A$1:$D$86</definedName>
+    <definedName name="java20160319100637" localSheetId="5">Test_JH_05!$A$1:$D$86</definedName>
+    <definedName name="java20160319100637" localSheetId="7">Test_JH_07!$A$1:$D$86</definedName>
+    <definedName name="java20160319103312" localSheetId="6">Test_JH_06!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -64,18 +70,45 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="java20160319100637" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/java20160319100637.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="java201603191006371" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/java20160319100637.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="java20160319103312" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/java20160319103312.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="140">
   <si>
     <t>Datum</t>
   </si>
   <si>
-    <t>Errors seeded</t>
-  </si>
-  <si>
     <t>Failures</t>
   </si>
   <si>
@@ -406,9 +439,6 @@
     <t>No Errors</t>
   </si>
   <si>
-    <t>18.3.</t>
-  </si>
-  <si>
     <t>Success Rate</t>
   </si>
   <si>
@@ -443,6 +473,57 @@
   </si>
   <si>
     <t>15.39</t>
+  </si>
+  <si>
+    <t>26.53</t>
+  </si>
+  <si>
+    <t>42.26</t>
+  </si>
+  <si>
+    <t>19.67</t>
+  </si>
+  <si>
+    <t>25.82</t>
+  </si>
+  <si>
+    <t>16.53</t>
+  </si>
+  <si>
+    <t>19.52</t>
+  </si>
+  <si>
+    <t>21.53</t>
+  </si>
+  <si>
+    <t>37.59</t>
+  </si>
+  <si>
+    <t>13.22</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>Errors Seede</t>
   </si>
 </sst>
 </file>
@@ -478,13 +559,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -512,6 +594,18 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="java(Failed Tests first)20160319-090933" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="java20160319100637" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="java20160319103312" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="java20160319100637" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,15 +871,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -794,111 +887,180 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="3">
+        <v>42447</v>
+      </c>
+      <c r="B2" s="6">
         <v>10</v>
       </c>
       <c r="C2">
+        <f>Test_JH_01!C87</f>
+        <v>45</v>
+      </c>
+      <c r="D2">
         <f>Test_JH_01!D87</f>
         <v>3</v>
       </c>
-      <c r="D2">
-        <f>Test_JH_01!C87</f>
-        <v>45</v>
-      </c>
       <c r="E2">
-        <f>(1-(C2+D2)/85)*100</f>
+        <f>(1-(D2+C2)/85)*100</f>
         <v>43.529411764705884</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="3">
+        <v>42447</v>
+      </c>
+      <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3">
+        <f>Test_JH_02!C87</f>
+        <v>35</v>
+      </c>
+      <c r="D3">
         <f>Test_JH_02!D87</f>
         <v>6</v>
       </c>
-      <c r="D3">
-        <f>Test_JH_02!C87</f>
-        <v>35</v>
-      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">(1-(C3+D3)/85)*100</f>
+        <f>(1-(D3+C3)/85)*100</f>
         <v>51.764705882352935</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="3">
+        <v>42447</v>
+      </c>
+      <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4">
+        <f>SUM(Test_JH_03!C2:C86)</f>
+        <v>31</v>
+      </c>
+      <c r="D4">
         <f>SUM(Test_JH_03!D2:D86)</f>
         <v>3</v>
       </c>
-      <c r="D4">
-        <f>SUM(Test_JH_03!C2:C86)</f>
-        <v>31</v>
-      </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>(1-(D4+C4)/85)*100</f>
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42448</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5">
-        <f>SUM(Test_JH_04!D3:D87)</f>
-        <v>5</v>
-      </c>
-      <c r="D5">
         <f>SUM(Test_JH_04!C3:C87)</f>
         <v>26</v>
       </c>
+      <c r="D5">
+        <f>SUM(Test_JH_04!D2:D86)</f>
+        <v>5</v>
+      </c>
       <c r="E5">
+        <f>(1-(D5+C5)/85)*100</f>
+        <v>63.529411764705877</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>42448</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>SUM(Test_JH_05!C4:C88)</f>
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <f>SUM(Test_JH_05!D4:D88)</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>(1-(D6+C6)/85)*100</f>
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42448</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>SUM(Test_JH_06!C2:C86)</f>
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <f>SUM(Test_JH_06!D2:D86)</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E8" si="0">(1-(D7+C7)/85)*100</f>
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>42448</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>SUM(Test_JH_07!C2:C86)</f>
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <f>SUM(Test_JH_07!D2:D86)</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>63.529411764705877</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
+        <v>57.647058823529406</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -910,35 +1072,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>23007</v>
@@ -950,12 +1113,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>25477</v>
@@ -967,12 +1130,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>20756</v>
@@ -984,12 +1147,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>11328</v>
@@ -1001,12 +1164,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>21054</v>
@@ -1018,12 +1181,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>11215</v>
@@ -1035,12 +1198,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>11048</v>
@@ -1052,12 +1215,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>17063</v>
@@ -1069,29 +1232,29 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>19852</v>
@@ -1103,12 +1266,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>11468</v>
@@ -1122,7 +1285,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>20607</v>
@@ -1136,7 +1299,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>43739</v>
@@ -1150,7 +1313,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>13396</v>
@@ -1164,7 +1327,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>15808</v>
@@ -1178,7 +1341,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>11537</v>
@@ -1192,7 +1355,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>10536</v>
@@ -1206,7 +1369,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>32051</v>
@@ -1220,7 +1383,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>16859</v>
@@ -1234,7 +1397,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>17206</v>
@@ -1248,10 +1411,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1262,7 +1425,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>16005</v>
@@ -1276,7 +1439,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>10335</v>
@@ -1290,7 +1453,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>122706</v>
@@ -1304,7 +1467,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>4194</v>
@@ -1318,7 +1481,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>4241</v>
@@ -1332,7 +1495,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>4263</v>
@@ -1346,7 +1509,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>5825</v>
@@ -1360,7 +1523,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>4508</v>
@@ -1374,7 +1537,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>4772</v>
@@ -1388,7 +1551,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>4557</v>
@@ -1402,7 +1565,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>5798</v>
@@ -1416,7 +1579,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>4962</v>
@@ -1430,7 +1593,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>4759</v>
@@ -1444,7 +1607,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2">
         <v>21641</v>
@@ -1458,7 +1621,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>5394</v>
@@ -1472,7 +1635,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>7253</v>
@@ -1486,7 +1649,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3">
         <v>42405</v>
@@ -1500,7 +1663,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>6456</v>
@@ -1514,7 +1677,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>4933</v>
@@ -1528,7 +1691,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>5987</v>
@@ -1542,7 +1705,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>5786</v>
@@ -1556,7 +1719,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>6062</v>
@@ -1570,7 +1733,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>5342</v>
@@ -1584,7 +1747,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>5307</v>
@@ -1598,7 +1761,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>5326</v>
@@ -1612,7 +1775,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4985</v>
@@ -1626,7 +1789,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="3">
         <v>42402</v>
@@ -1640,7 +1803,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>16165</v>
@@ -1654,7 +1817,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2">
         <v>14427</v>
@@ -1668,7 +1831,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>10836</v>
@@ -1682,7 +1845,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2">
         <v>23651</v>
@@ -1696,7 +1859,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2">
         <v>15646</v>
@@ -1710,7 +1873,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1">
         <v>10751</v>
@@ -1724,7 +1887,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>21823</v>
@@ -1738,7 +1901,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>11822</v>
@@ -1752,7 +1915,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
         <v>11482</v>
@@ -1766,7 +1929,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2">
         <v>15646</v>
@@ -1780,7 +1943,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <v>27979</v>
@@ -1794,7 +1957,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="3">
         <v>42415</v>
@@ -1808,7 +1971,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <v>18922</v>
@@ -1822,7 +1985,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1">
         <v>11743</v>
@@ -1836,7 +1999,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <v>11861</v>
@@ -1850,7 +2013,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>10772</v>
@@ -1864,7 +2027,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1">
         <v>11234</v>
@@ -1878,7 +2041,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1">
         <v>11103</v>
@@ -1892,7 +2055,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>11231</v>
@@ -1906,7 +2069,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1">
         <v>48343</v>
@@ -1920,7 +2083,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <v>39187</v>
@@ -1934,7 +2097,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1">
         <v>41069</v>
@@ -1948,7 +2111,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1">
         <v>28628</v>
@@ -1962,7 +2125,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <v>30307</v>
@@ -1976,7 +2139,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1">
         <v>33134</v>
@@ -1990,7 +2153,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1">
         <v>26147</v>
@@ -2004,7 +2167,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>14243</v>
@@ -2018,7 +2181,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1">
         <v>16499</v>
@@ -2032,7 +2195,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>29189</v>
@@ -2046,10 +2209,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
         <v>98</v>
-      </c>
-      <c r="B79" t="s">
-        <v>99</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2060,7 +2223,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
         <v>24628</v>
@@ -2074,7 +2237,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="1">
         <v>22683</v>
@@ -2088,7 +2251,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="1">
         <v>16949</v>
@@ -2102,7 +2265,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1">
         <v>28092</v>
@@ -2116,7 +2279,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1">
         <v>19461</v>
@@ -2130,7 +2293,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1">
         <v>16156</v>
@@ -2144,7 +2307,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1">
         <v>13069</v>
@@ -2176,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -2184,24 +2347,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>24671</v>
@@ -2213,12 +2376,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>19819</v>
@@ -2232,7 +2395,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>19664</v>
@@ -2246,7 +2409,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>14642</v>
@@ -2260,7 +2423,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>11259</v>
@@ -2274,7 +2437,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>17884</v>
@@ -2288,7 +2451,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>18861</v>
@@ -2302,7 +2465,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>16828</v>
@@ -2316,10 +2479,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2330,7 +2493,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>19756</v>
@@ -2344,7 +2507,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>11386</v>
@@ -2358,7 +2521,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>20647</v>
@@ -2372,7 +2535,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>10698</v>
@@ -2386,7 +2549,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>16463</v>
@@ -2400,7 +2563,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>29723</v>
@@ -2414,7 +2577,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>12207</v>
@@ -2428,7 +2591,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>11794</v>
@@ -2442,7 +2605,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>11136</v>
@@ -2456,7 +2619,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>17897</v>
@@ -2470,10 +2633,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2484,7 +2647,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>57553</v>
@@ -2498,7 +2661,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>18571</v>
@@ -2512,7 +2675,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>12091</v>
@@ -2526,7 +2689,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>128398</v>
@@ -2540,7 +2703,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>5089</v>
@@ -2554,7 +2717,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>5358</v>
@@ -2568,7 +2731,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>5317</v>
@@ -2582,7 +2745,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
         <v>20180</v>
@@ -2596,7 +2759,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>4776</v>
@@ -2610,7 +2773,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>4676</v>
@@ -2624,7 +2787,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>5017</v>
@@ -2638,7 +2801,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>5684</v>
@@ -2652,7 +2815,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>7159</v>
@@ -2666,7 +2829,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>8095</v>
@@ -2680,7 +2843,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>6745</v>
@@ -2694,7 +2857,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>5722</v>
@@ -2708,7 +2871,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>5021</v>
@@ -2722,7 +2885,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>5488</v>
@@ -2736,7 +2899,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>5517</v>
@@ -2750,7 +2913,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>5532</v>
@@ -2764,7 +2927,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>5578</v>
@@ -2778,7 +2941,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>5117</v>
@@ -2792,7 +2955,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>5327</v>
@@ -2806,7 +2969,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>5282</v>
@@ -2820,7 +2983,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>4948</v>
@@ -2834,7 +2997,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>4917</v>
@@ -2848,7 +3011,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4905</v>
@@ -2862,7 +3025,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>2571</v>
@@ -2876,7 +3039,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>11664</v>
@@ -2890,7 +3053,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>7488</v>
@@ -2904,7 +3067,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>10766</v>
@@ -2918,7 +3081,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>10556</v>
@@ -2932,7 +3095,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1">
         <v>16734</v>
@@ -2946,10 +3109,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2960,7 +3123,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>20881</v>
@@ -2974,7 +3137,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>15582</v>
@@ -2988,7 +3151,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
         <v>21209</v>
@@ -3002,7 +3165,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1">
         <v>12492</v>
@@ -3016,7 +3179,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <v>22125</v>
@@ -3030,7 +3193,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1">
         <v>10637</v>
@@ -3044,7 +3207,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <v>11452</v>
@@ -3058,7 +3221,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1">
         <v>11729</v>
@@ -3072,7 +3235,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <v>14011</v>
@@ -3086,7 +3249,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>12204</v>
@@ -3100,7 +3263,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1">
         <v>20733</v>
@@ -3114,7 +3277,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1">
         <v>25764</v>
@@ -3128,7 +3291,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>13779</v>
@@ -3142,10 +3305,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3156,7 +3319,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <v>19038</v>
@@ -3170,7 +3333,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1">
         <v>20392</v>
@@ -3184,7 +3347,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1">
         <v>12098</v>
@@ -3198,7 +3361,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <v>21402</v>
@@ -3212,7 +3375,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1">
         <v>11147</v>
@@ -3226,7 +3389,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1">
         <v>11461</v>
@@ -3240,7 +3403,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>11269</v>
@@ -3254,7 +3417,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="5">
         <v>42467</v>
@@ -3268,7 +3431,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>27478</v>
@@ -3282,7 +3445,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1">
         <v>12521</v>
@@ -3296,7 +3459,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
         <v>12437</v>
@@ -3310,7 +3473,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="1">
         <v>17638</v>
@@ -3324,7 +3487,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="1">
         <v>10757</v>
@@ -3338,7 +3501,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1">
         <v>22937</v>
@@ -3352,7 +3515,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1">
         <v>15875</v>
@@ -3366,7 +3529,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1">
         <v>11913</v>
@@ -3380,7 +3543,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1">
         <v>12178</v>
@@ -3411,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3423,21 +3586,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>28321</v>
@@ -3451,7 +3614,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>17827</v>
@@ -3465,7 +3628,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>21655</v>
@@ -3479,7 +3642,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>11134</v>
@@ -3493,7 +3656,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>22215</v>
@@ -3507,7 +3670,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>17422</v>
@@ -3521,7 +3684,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>14678</v>
@@ -3535,7 +3698,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>18454</v>
@@ -3549,7 +3712,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>15334</v>
@@ -3563,7 +3726,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>19569</v>
@@ -3577,7 +3740,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>11675</v>
@@ -3591,7 +3754,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>20966</v>
@@ -3605,7 +3768,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>10846</v>
@@ -3619,7 +3782,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>15708</v>
@@ -3633,7 +3796,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>27568</v>
@@ -3647,7 +3810,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>12112</v>
@@ -3661,7 +3824,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>11869</v>
@@ -3675,7 +3838,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>12965</v>
@@ -3689,10 +3852,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3703,7 +3866,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>17623</v>
@@ -3717,7 +3880,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>54288</v>
@@ -3731,7 +3894,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>18463</v>
@@ -3745,7 +3908,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>16336</v>
@@ -3759,7 +3922,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>117978</v>
@@ -3773,7 +3936,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>4717</v>
@@ -3787,7 +3950,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>4734</v>
@@ -3801,7 +3964,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>4487</v>
@@ -3815,7 +3978,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>4698</v>
@@ -3829,7 +3992,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>4716</v>
@@ -3843,7 +4006,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>5723</v>
@@ -3857,7 +4020,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>5104</v>
@@ -3871,7 +4034,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>4656</v>
@@ -3885,7 +4048,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>4891</v>
@@ -3899,7 +4062,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
         <v>20546</v>
@@ -3913,7 +4076,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>4834</v>
@@ -3927,7 +4090,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>4958</v>
@@ -3941,7 +4104,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>4746</v>
@@ -3955,7 +4118,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>4944</v>
@@ -3969,7 +4132,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2">
         <v>19480</v>
@@ -3983,7 +4146,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>5405</v>
@@ -3997,7 +4160,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>5601</v>
@@ -4011,7 +4174,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>5656</v>
@@ -4025,7 +4188,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>4875</v>
@@ -4039,7 +4202,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>5531</v>
@@ -4053,7 +4216,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>5323</v>
@@ -4067,7 +4230,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>5448</v>
@@ -4081,7 +4244,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4616</v>
@@ -4095,7 +4258,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>2213</v>
@@ -4109,7 +4272,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>18254</v>
@@ -4123,7 +4286,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>7826</v>
@@ -4137,7 +4300,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>12285</v>
@@ -4151,7 +4314,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>12577</v>
@@ -4165,7 +4328,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1">
         <v>23811</v>
@@ -4179,7 +4342,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1">
         <v>15195</v>
@@ -4193,7 +4356,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>25919</v>
@@ -4207,7 +4370,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>16585</v>
@@ -4221,7 +4384,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
         <v>11656</v>
@@ -4235,10 +4398,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4249,7 +4412,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <v>28492</v>
@@ -4263,10 +4426,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4277,7 +4440,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <v>34924</v>
@@ -4291,10 +4454,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4305,10 +4468,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4319,7 +4482,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>23123</v>
@@ -4333,7 +4496,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="5">
         <v>42473</v>
@@ -4347,7 +4510,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1">
         <v>11634</v>
@@ -4361,7 +4524,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>12875</v>
@@ -4375,7 +4538,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1">
         <v>43499</v>
@@ -4389,7 +4552,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <v>17401</v>
@@ -4403,7 +4566,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1">
         <v>15859</v>
@@ -4417,7 +4580,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1">
         <v>13121</v>
@@ -4431,7 +4594,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <v>12545</v>
@@ -4445,7 +4608,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1">
         <v>11977</v>
@@ -4459,7 +4622,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1">
         <v>11751</v>
@@ -4473,7 +4636,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>16396</v>
@@ -4487,7 +4650,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1">
         <v>12631</v>
@@ -4501,7 +4664,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>28755</v>
@@ -4515,7 +4678,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2">
         <v>13119</v>
@@ -4529,7 +4692,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
         <v>28846</v>
@@ -4543,7 +4706,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="1">
         <v>36196</v>
@@ -4557,7 +4720,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="1">
         <v>14535</v>
@@ -4571,7 +4734,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1">
         <v>31179</v>
@@ -4585,7 +4748,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1">
         <v>24855</v>
@@ -4599,7 +4762,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1">
         <v>29938</v>
@@ -4613,7 +4776,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1">
         <v>41718</v>
@@ -4646,21 +4809,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>27828</v>
@@ -4674,7 +4837,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>17849</v>
@@ -4688,7 +4851,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>14035</v>
@@ -4702,7 +4865,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>18096</v>
@@ -4716,7 +4879,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>14411</v>
@@ -4730,7 +4893,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>19132</v>
@@ -4744,7 +4907,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>17289</v>
@@ -4758,7 +4921,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>18736</v>
@@ -4772,7 +4935,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>23215</v>
@@ -4786,7 +4949,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>21158</v>
@@ -4800,7 +4963,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>12988</v>
@@ -4814,7 +4977,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>21472</v>
@@ -4828,7 +4991,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>11619</v>
@@ -4842,10 +5005,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4856,10 +5019,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4870,7 +5033,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>14339</v>
@@ -4884,7 +5047,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>42565</v>
@@ -4898,7 +5061,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>13655</v>
@@ -4912,7 +5075,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>22109</v>
@@ -4926,7 +5089,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>23322</v>
@@ -4940,10 +5103,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4954,7 +5117,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>18785</v>
@@ -4968,7 +5131,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>18113</v>
@@ -4982,7 +5145,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>121986</v>
@@ -4996,7 +5159,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>4966</v>
@@ -5010,7 +5173,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>4999</v>
@@ -5024,7 +5187,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>4808</v>
@@ -5038,7 +5201,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>4692</v>
@@ -5052,7 +5215,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5">
         <v>42587</v>
@@ -5066,7 +5229,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>4633</v>
@@ -5080,7 +5243,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>4783</v>
@@ -5094,7 +5257,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>5573</v>
@@ -5108,7 +5271,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>5258</v>
@@ -5122,7 +5285,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
         <v>30042</v>
@@ -5136,7 +5299,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>5899</v>
@@ -5150,7 +5313,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>5386</v>
@@ -5164,7 +5327,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>5174</v>
@@ -5178,7 +5341,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2">
         <v>35156</v>
@@ -5192,7 +5355,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>5835</v>
@@ -5206,7 +5369,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>6062</v>
@@ -5220,7 +5383,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>4563</v>
@@ -5234,7 +5397,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>5087</v>
@@ -5248,7 +5411,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2">
         <v>35156</v>
@@ -5262,7 +5425,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>5556</v>
@@ -5276,7 +5439,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>5793</v>
@@ -5290,7 +5453,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>5439</v>
@@ -5304,7 +5467,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>5253</v>
@@ -5318,7 +5481,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>2405</v>
@@ -5332,7 +5495,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>18921</v>
@@ -5346,7 +5509,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2">
         <v>20637</v>
@@ -5360,7 +5523,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>12004</v>
@@ -5374,7 +5537,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>10995</v>
@@ -5388,7 +5551,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1">
         <v>19403</v>
@@ -5402,10 +5565,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -5416,7 +5579,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>12468</v>
@@ -5430,7 +5593,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>17627</v>
@@ -5444,7 +5607,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
         <v>13174</v>
@@ -5458,7 +5621,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1">
         <v>13244</v>
@@ -5472,7 +5635,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <v>29294</v>
@@ -5486,7 +5649,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1">
         <v>18412</v>
@@ -5500,7 +5663,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <v>19418</v>
@@ -5514,7 +5677,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1">
         <v>14829</v>
@@ -5528,7 +5691,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <v>14499</v>
@@ -5542,7 +5705,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>12618</v>
@@ -5556,7 +5719,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1">
         <v>20602</v>
@@ -5570,7 +5733,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="5">
         <v>42511</v>
@@ -5584,7 +5747,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>18756</v>
@@ -5598,7 +5761,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1">
         <v>54446</v>
@@ -5612,7 +5775,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <v>18332</v>
@@ -5626,7 +5789,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1">
         <v>20467</v>
@@ -5640,7 +5803,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1">
         <v>21308</v>
@@ -5654,7 +5817,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <v>12628</v>
@@ -5668,7 +5831,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2">
         <v>47423</v>
@@ -5682,7 +5845,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2">
         <v>19268</v>
@@ -5696,7 +5859,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>15366</v>
@@ -5710,7 +5873,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1">
         <v>10866</v>
@@ -5724,7 +5887,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>26516</v>
@@ -5738,7 +5901,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1">
         <v>12053</v>
@@ -5752,7 +5915,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
         <v>15429</v>
@@ -5766,7 +5929,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="5">
         <v>42720</v>
@@ -5780,7 +5943,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="1">
         <v>11726</v>
@@ -5794,7 +5957,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1">
         <v>24091</v>
@@ -5808,7 +5971,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1">
         <v>16721</v>
@@ -5822,7 +5985,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="1">
         <v>15718</v>
@@ -5836,10 +5999,3679 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1">
         <v>17451</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26469</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18961</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11266</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14875</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24455</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16189</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16313</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19854</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16742</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22281</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12276</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21978</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10498</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16407</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36679</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35299</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>22362</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>13381</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17956</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66325</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>14562</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42440</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>121677</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5657</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4852</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5238</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5378</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6319</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5255</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4925</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4803</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4664</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20546</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2">
+        <v>34425</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4979</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42374</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5013</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5074</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4681</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5635</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5215</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5998</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5375</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4925</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5535</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4867</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2766</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12004</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7568</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11893</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10597</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>17764</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>16131</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>23363</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>17347</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>23358</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>14238</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>28294</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20143</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20346</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15223</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>14816</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12398</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20198</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>11029</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>18919</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>16343</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14215</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>14765</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12304</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>11453</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15117</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>11655</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1">
+        <v>21427</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>10966</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>18379</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>12545</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>24202</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>16896</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>15814</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>16461</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26493</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18333</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11819</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15341</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12133</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>35400</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17896</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16225</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20816</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14545</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22293</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11961</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15911</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>28595</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12824</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12281</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14344</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19635</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18181</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>70521</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19656</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12756</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>125405</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5228</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5758</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5821</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5681</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5477</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5026</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5782</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5356</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5299</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5192</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5448</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5417</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4845</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4827</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4966</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5348</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5373</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5892</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="2">
+        <v>35521</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5117</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4958</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2">
+        <v>24228</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5603</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2341</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>18033</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7569</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2">
+        <v>46357</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12823</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12385</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>14895</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>12184</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>16417</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11697</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12983</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>28412</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>18095</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15207</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>14736</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>11971</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19426</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>17937</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1">
+        <v>19608</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>17041</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>13748</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>11822</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1">
+        <v>16364</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>13419</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>28556</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26469</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18961</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11266</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14875</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24455</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16189</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16313</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19854</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16742</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22281</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12276</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21978</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10498</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16407</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36679</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35299</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>22362</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>13381</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17956</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66325</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>14562</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42440</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>121677</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5657</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4852</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5238</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5378</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6319</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5255</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4925</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4803</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4664</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20546</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2">
+        <v>34425</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4979</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42374</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5013</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5074</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4681</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5635</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5215</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5998</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5375</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4925</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5535</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4867</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2766</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12004</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7568</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11893</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10597</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>17764</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>16131</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>23363</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>17347</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>23358</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>14238</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>28294</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20143</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20346</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15223</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>14816</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12398</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20198</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>11029</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>18919</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>16343</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14215</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>14765</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12304</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>11453</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15117</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>11655</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1">
+        <v>21427</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>10966</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>18379</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>12545</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>24202</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>16896</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>15814</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>16461</v>
       </c>
       <c r="C86">
         <v>0</v>

--- a/Auswertung_tests.xlsx
+++ b/Auswertung_tests.xlsx
@@ -27,7 +27,12 @@
     <sheet name="Test_JH_05" sheetId="6" r:id="rId13"/>
     <sheet name="Test_JH_06" sheetId="7" r:id="rId14"/>
     <sheet name="Test_JH_07" sheetId="8" r:id="rId15"/>
-    <sheet name="Test_JH_08" sheetId="9" r:id="rId16"/>
+    <sheet name="Tabelle6" sheetId="22" r:id="rId16"/>
+    <sheet name="Tabelle5" sheetId="21" r:id="rId17"/>
+    <sheet name="Tabelle4" sheetId="20" r:id="rId18"/>
+    <sheet name="Tabelle3" sheetId="19" r:id="rId19"/>
+    <sheet name="Tabelle2" sheetId="18" r:id="rId20"/>
+    <sheet name="Test_JH_08" sheetId="9" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="java_Failed_Tests_first_20160319_090933" localSheetId="11">Test_JH_04!$A$1:$D$86</definedName>
@@ -36,7 +41,7 @@
     <definedName name="java20160319100637" localSheetId="12">Test_JH_05!$A$1:$D$86</definedName>
     <definedName name="java20160319100637" localSheetId="14">Test_JH_07!$A$1:$D$86</definedName>
     <definedName name="java20160319103312" localSheetId="13">Test_JH_06!$A$1:$D$86</definedName>
-    <definedName name="java20160319163939" localSheetId="15">Test_JH_08!$A$1:$D$86</definedName>
+    <definedName name="java20160319163939" localSheetId="20">Test_JH_08!$A$1:$D$86</definedName>
     <definedName name="java20160319170421" localSheetId="7">Test_JH_09!$A$1:$D$86</definedName>
     <definedName name="java20160319173844" localSheetId="6">Test_JH_10!$A$1:$D$86</definedName>
     <definedName name="java20160319211121" localSheetId="5">Test_JH_11!$A$1:$D$86</definedName>
@@ -44,6 +49,11 @@
     <definedName name="java20160320104935" localSheetId="3">Test_JH_13!$A$1:$D$86</definedName>
     <definedName name="java20160320144307" localSheetId="2">Test_JH_14!$A$1:$D$86</definedName>
     <definedName name="ssl20160320151626" localSheetId="1">Test_JH_15!$A$1:$D$86</definedName>
+    <definedName name="Test_JS_1" localSheetId="19">Tabelle2!$A$1:$D$86</definedName>
+    <definedName name="Test_JS_2" localSheetId="18">Tabelle3!$A$1:$D$86</definedName>
+    <definedName name="Test_JS_3" localSheetId="17">Tabelle4!$A$1:$D$86</definedName>
+    <definedName name="Test_JS_4" localSheetId="16">Tabelle5!$A$1:$D$86</definedName>
+    <definedName name="Test_JS_5" localSheetId="15">Tabelle6!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -196,11 +206,61 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="15" name="Test_JS_1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/csvFilesJan/Test_JS_1.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" name="Test_JS_2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/csvFilesJan/Test_JS_2.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" name="Test_JS_3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/csvFilesJan/Test_JS_3.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" name="Test_JS_4" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/csvFilesJan/Test_JS_4.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" name="Test_JS_5" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/johannesh/Documents/web-testing/csvFilesJan/Test_JS_5.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="188">
   <si>
     <t>Datum</t>
   </si>
@@ -684,6 +744,87 @@
   <si>
     <t>14.42</t>
   </si>
+  <si>
+    <t>39.34</t>
+  </si>
+  <si>
+    <t>15.28</t>
+  </si>
+  <si>
+    <t>16.19</t>
+  </si>
+  <si>
+    <t>19.63</t>
+  </si>
+  <si>
+    <t>30.94</t>
+  </si>
+  <si>
+    <t>17.55</t>
+  </si>
+  <si>
+    <t>17.43</t>
+  </si>
+  <si>
+    <t>17.34</t>
+  </si>
+  <si>
+    <t>85.16</t>
+  </si>
+  <si>
+    <t>22.57</t>
+  </si>
+  <si>
+    <t>16.49</t>
+  </si>
+  <si>
+    <t>16.65</t>
+  </si>
+  <si>
+    <t>17.35</t>
+  </si>
+  <si>
+    <t>15.74</t>
+  </si>
+  <si>
+    <t>31.11</t>
+  </si>
+  <si>
+    <t>39.77</t>
+  </si>
+  <si>
+    <t>18.35</t>
+  </si>
+  <si>
+    <t>22.69</t>
+  </si>
+  <si>
+    <t>16.45</t>
+  </si>
+  <si>
+    <t>24.19</t>
+  </si>
+  <si>
+    <t>16.47</t>
+  </si>
+  <si>
+    <t>15.62</t>
+  </si>
+  <si>
+    <t>20.63</t>
+  </si>
+  <si>
+    <t>16.76</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
 </sst>
 </file>
 
@@ -775,6 +916,26 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Test_JS_5" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Test_JS_4" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Test_JS_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Test_JS_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Test_JS_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="java20160319163939" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1076,17 +1237,17 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" ref="E7:E16" si="0">(1-(D7+C7)/85)*100</f>
+        <f t="shared" ref="E7:E25" si="0">(1-(D7+C7)/85)*100</f>
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1454,52 +1615,141 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C17" s="6">
+        <f>SUM(Tabelle2!C2:C86)</f>
+        <v>27</v>
+      </c>
+      <c r="D17" s="6">
+        <f>SUM(Tabelle2!D2:D86)</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>63.529411764705877</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C18" s="6">
+        <f>SUM(Tabelle3!C2:C86)</f>
+        <v>25</v>
+      </c>
+      <c r="D18" s="6">
+        <f>SUM(Tabelle3!D2:D86)</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>64.705882352941174</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C19" s="6">
+        <f>SUM(Tabelle4!C2:C86)</f>
+        <v>41</v>
+      </c>
+      <c r="D19" s="6">
+        <f>SUM(Tabelle4!D2:D86)</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>45.882352941176471</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C20" s="6">
+        <f>SUM(Tabelle5!C2:C86)</f>
+        <v>34</v>
+      </c>
+      <c r="D20" s="6">
+        <f>SUM(Tabelle5!D2:D86)</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>54.117647058823536</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C21" s="6">
+        <f>SUM(Tabelle6!C2:C86)</f>
+        <v>37</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(Tabelle6!D2:D86)</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>48.235294117647051</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
@@ -8899,7 +9149,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>23966</v>
+        <v>26535</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8913,10 +9163,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>13697</v>
+        <v>23632</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -8927,7 +9177,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>10859</v>
+        <v>15787</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8941,13 +9191,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>13754</v>
+        <v>21915</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8955,7 +9205,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>11219</v>
+        <v>16654</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8969,7 +9219,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>17687</v>
+        <v>21683</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8983,10 +9233,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>12893</v>
+        <v>21169</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8997,10 +9247,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>17061</v>
+        <v>18178</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9011,10 +9261,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>13177</v>
+        <v>21567</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9025,7 +9275,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>19684</v>
+        <v>21764</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9038,8 +9288,8 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
-        <v>21490</v>
+      <c r="B12" s="1">
+        <v>15945</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -9053,13 +9303,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>20483</v>
+        <v>25849</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -9067,13 +9317,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>11497</v>
+        <v>29982</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -9081,10 +9331,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="1">
-        <v>15375</v>
+        <v>21487</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -9095,7 +9345,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>27803</v>
+        <v>31414</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9108,8 +9358,8 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
-        <v>12866</v>
+      <c r="B17" t="s">
+        <v>181</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9123,7 +9373,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>12013</v>
+        <v>15135</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9137,7 +9387,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>12472</v>
+        <v>16548</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -9151,13 +9401,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="1">
-        <v>19154</v>
+        <v>22521</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -9165,7 +9415,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1">
-        <v>16957</v>
+        <v>20739</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9179,7 +9429,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1">
-        <v>55882</v>
+        <v>79798</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -9192,8 +9442,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>140</v>
+      <c r="B23" s="1">
+        <v>21648</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9207,10 +9457,10 @@
         <v>42</v>
       </c>
       <c r="B24" s="1">
-        <v>10401</v>
+        <v>21946</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -9221,7 +9471,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="1">
-        <v>106284</v>
+        <v>220959</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -9234,8 +9484,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="5">
-        <v>42618</v>
+      <c r="B26" s="1">
+        <v>9901</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -9248,8 +9498,8 @@
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2">
-        <v>26024</v>
+      <c r="B27" s="1">
+        <v>9424</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -9263,7 +9513,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="1">
-        <v>4741</v>
+        <v>9299</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -9277,7 +9527,7 @@
         <v>47</v>
       </c>
       <c r="B29" s="1">
-        <v>4598</v>
+        <v>10375</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -9291,7 +9541,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="1">
-        <v>4435</v>
+        <v>9865</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -9305,7 +9555,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>4482</v>
+        <v>8956</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -9318,8 +9568,8 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="1">
-        <v>4422</v>
+      <c r="B32" s="2">
+        <v>32387</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -9332,8 +9582,8 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1">
-        <v>4237</v>
+      <c r="B33" s="2">
+        <v>22494</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -9347,7 +9597,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>4252</v>
+        <v>9758</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -9361,7 +9611,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="1">
-        <v>4484</v>
+        <v>9692</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -9374,8 +9624,8 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="1">
-        <v>4619</v>
+      <c r="B36" s="2">
+        <v>15585</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9389,7 +9639,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>4749</v>
+        <v>9047</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -9402,8 +9652,8 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="1">
-        <v>4545</v>
+      <c r="B38" s="5">
+        <v>42469</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9417,7 +9667,7 @@
         <v>57</v>
       </c>
       <c r="B39" s="1">
-        <v>4376</v>
+        <v>9186</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9431,7 +9681,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="1">
-        <v>4448</v>
+        <v>9638</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -9445,7 +9695,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="1">
-        <v>4479</v>
+        <v>9813</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -9459,7 +9709,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="1">
-        <v>4451</v>
+        <v>9786</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -9473,7 +9723,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="1">
-        <v>4437</v>
+        <v>8787</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -9487,7 +9737,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="1">
-        <v>4237</v>
+        <v>8799</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -9501,7 +9751,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="1">
-        <v>4875</v>
+        <v>9248</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -9515,7 +9765,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="1">
-        <v>4707</v>
+        <v>9321</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9529,7 +9779,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="1">
-        <v>4444</v>
+        <v>9022</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -9542,8 +9792,8 @@
       <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="1">
-        <v>4453</v>
+      <c r="B48" s="2">
+        <v>45200</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -9556,8 +9806,8 @@
       <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="5">
-        <v>42371</v>
+      <c r="B49" s="1">
+        <v>3861</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -9571,7 +9821,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="1">
-        <v>15746</v>
+        <v>20742</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9585,7 +9835,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="1">
-        <v>6642</v>
+        <v>12081</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -9599,7 +9849,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="1">
-        <v>10408</v>
+        <v>15025</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -9613,7 +9863,7 @@
         <v>71</v>
       </c>
       <c r="B53" s="1">
-        <v>10371</v>
+        <v>16962</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9627,10 +9877,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -9640,11 +9890,11 @@
       <c r="A55" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="1">
-        <v>13399</v>
+      <c r="B55" t="s">
+        <v>183</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -9654,8 +9904,8 @@
       <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="1">
-        <v>11166</v>
+      <c r="B56" t="s">
+        <v>184</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -9668,11 +9918,11 @@
       <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="1">
-        <v>15209</v>
+      <c r="B57" t="s">
+        <v>185</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -9682,8 +9932,8 @@
       <c r="A58" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="1">
-        <v>10745</v>
+      <c r="B58" t="s">
+        <v>186</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -9697,10 +9947,10 @@
         <v>77</v>
       </c>
       <c r="B59" s="1">
-        <v>11409</v>
+        <v>15898</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -9711,7 +9961,7 @@
         <v>78</v>
       </c>
       <c r="B60" s="1">
-        <v>29283</v>
+        <v>32544</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9725,10 +9975,10 @@
         <v>79</v>
       </c>
       <c r="B61" s="1">
-        <v>19057</v>
+        <v>21013</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -9739,10 +9989,10 @@
         <v>80</v>
       </c>
       <c r="B62" s="1">
-        <v>19223</v>
+        <v>22686</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9753,10 +10003,10 @@
         <v>81</v>
       </c>
       <c r="B63" s="1">
-        <v>14961</v>
+        <v>22165</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -9767,7 +10017,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="1">
-        <v>12677</v>
+        <v>18092</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -9781,7 +10031,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="1">
-        <v>11161</v>
+        <v>17489</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -9795,7 +10045,7 @@
         <v>84</v>
       </c>
       <c r="B66" s="1">
-        <v>19221</v>
+        <v>24286</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -9809,7 +10059,7 @@
         <v>85</v>
       </c>
       <c r="B67" s="1">
-        <v>20819</v>
+        <v>22556</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -9823,7 +10073,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="1">
-        <v>17037</v>
+        <v>21598</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9836,11 +10086,11 @@
       <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B69" t="s">
-        <v>142</v>
+      <c r="B69" s="1">
+        <v>39864</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -9850,8 +10100,8 @@
       <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="5">
-        <v>42412</v>
+      <c r="B70" s="1">
+        <v>17798</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -9865,7 +10115,7 @@
         <v>89</v>
       </c>
       <c r="B71" s="1">
-        <v>15706</v>
+        <v>20259</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -9878,8 +10128,8 @@
       <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="2">
-        <v>15311</v>
+      <c r="B72" s="1">
+        <v>16925</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -9893,7 +10143,7 @@
         <v>91</v>
       </c>
       <c r="B73" s="1">
-        <v>12184</v>
+        <v>17445</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -9907,7 +10157,7 @@
         <v>92</v>
       </c>
       <c r="B74" s="1">
-        <v>11686</v>
+        <v>16645</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -9921,7 +10171,7 @@
         <v>93</v>
       </c>
       <c r="B75" s="1">
-        <v>10882</v>
+        <v>15408</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -9935,7 +10185,7 @@
         <v>94</v>
       </c>
       <c r="B76" s="1">
-        <v>15045</v>
+        <v>21888</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -9949,21 +10199,21 @@
         <v>95</v>
       </c>
       <c r="B77" s="1">
-        <v>10981</v>
+        <v>10428</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="5">
-        <v>42395</v>
+      <c r="B78" s="1">
+        <v>34985</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -9977,7 +10227,7 @@
         <v>97</v>
       </c>
       <c r="B79" s="1">
-        <v>13052</v>
+        <v>17629</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -9991,7 +10241,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="1">
-        <v>16667</v>
+        <v>22179</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10005,7 +10255,7 @@
         <v>100</v>
       </c>
       <c r="B81" s="1">
-        <v>28323</v>
+        <v>21222</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10019,7 +10269,7 @@
         <v>101</v>
       </c>
       <c r="B82" s="1">
-        <v>13116</v>
+        <v>15532</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -10033,10 +10283,10 @@
         <v>102</v>
       </c>
       <c r="B83" s="1">
-        <v>23709</v>
+        <v>19495</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10047,7 +10297,7 @@
         <v>103</v>
       </c>
       <c r="B84" s="1">
-        <v>18337</v>
+        <v>11059</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -10061,7 +10311,7 @@
         <v>104</v>
       </c>
       <c r="B85" s="1">
-        <v>15507</v>
+        <v>22003</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -10075,7 +10325,3676 @@
         <v>105</v>
       </c>
       <c r="B86" s="1">
-        <v>19776</v>
+        <v>21975</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>24067</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23281</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16135</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21412</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16218</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21364</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18014</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20561</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21353</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26214</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14928</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>22026</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16036</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15154</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16284</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>22197</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20569</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>79537</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21065</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16137</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>220886</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9834</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9627</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42591</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9961</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10196</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9015</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8924</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9298</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8914</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9886</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9246</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9408</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9557</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8789</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9555</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9141</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9517</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9954</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9246</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>8999</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9763</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9106</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9783</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3367</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20231</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16242</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16696</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20954</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>20787</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>16263</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>22199</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15953</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>32777</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21753</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20927</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>21386</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>17876</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>17389</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>25759</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>21348</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>22717</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43091</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1">
+        <v>24876</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42567</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>17385</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1">
+        <v>15033</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>17101</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>11855</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>38158</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="5">
+        <v>42391</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>16426</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>20081</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>12498</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>14077</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>22781</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18214</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15901</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26936</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16049</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26376</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16633</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16504</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42720</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28083</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>27288</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>26718</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16008</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17039</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16529</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>26689</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>26836</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16476</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20663</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22903</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16515</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>224258</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2">
+        <v>46661</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10031</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9777</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9842</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9544</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9826</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9237</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9032</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9308</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9674</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9293</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9677</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45536</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9073</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2">
+        <v>19998</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9266</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9188</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9901</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9137</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9511</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8852</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9842</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4194</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20769</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1">
+        <v>39397</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16434</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16535</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>21092</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>21906</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>16791</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>32858</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21315</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>22315</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>22185</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>19142</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>18081</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>22516</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>22565</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>22665</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43364</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1">
+        <v>26977</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>34593</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>16948</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>16164</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="5">
+        <v>42416</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>16043</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1">
+        <v>21985</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>14999</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>31804</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1">
+        <v>17679</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>23569</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>21315</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>16094</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>19289</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>11397</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>24716</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>22966</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>24593</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15571</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16841</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15696</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16939</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20336</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18605</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20301</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21705</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>16181</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25727</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14193</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>18077</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14797</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16173</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20833</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20802</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>75525</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20493</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>14608</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>212285</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9377</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8813</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9242</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9434</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9943</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9207</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9323</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8898</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8575</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8316</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8849</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9307</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9111</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8373</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9096</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9166</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9217</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8845</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9276</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9185</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9462</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8679</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9022</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3568</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>19869</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1">
+        <v>39826</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15553</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16123</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20129</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>17354</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>16249</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20386</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>15647</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15775</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>31848</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21856</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20588</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>17323</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>17619</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>21764</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>23724</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>21549</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="1">
+        <v>35976</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1">
+        <v>19955</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>16603</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>15374</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>17223</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1">
+        <v>15557</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>14867</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9881</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30641</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1">
+        <v>16497</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>17805</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>20545</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>15714</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>26441</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9398</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>18365</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>27384</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -11312,6 +15231,2452 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18015</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20651</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15764</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17132</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16443</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21171</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21641</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17897</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>21414</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>23766</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17716</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26897</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15654</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>19218</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33416</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16618</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15391</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16315</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>22266</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21043</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>77885</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20983</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15887</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>213191</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8983</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8868</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9977</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9234</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9356</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9381</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8431</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9144</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9555</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8336</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9149</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>28703</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35643</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9498</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9414</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8872</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9031</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9096</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8609</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9296</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9196</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9188</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9091</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3736</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>19922</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>14987</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16849</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20557</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>19519</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>16777</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>18667</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15921</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>32148</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21802</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>22222</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>17366</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16771</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>15207</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>23157</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>23542</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>20473</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="1">
+        <v>32574</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1">
+        <v>20724</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>20118</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>15675</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>16641</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1">
+        <v>18466</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>15386</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1">
+        <v>17556</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="5">
+        <v>42532</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30223</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1">
+        <v>17825</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>21575</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>22635</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>28876</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10451</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>21013</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>23966</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13697</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10859</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13754</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11219</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17687</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12893</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17061</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13177</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19684</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>21490</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20483</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11497</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15375</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>27803</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12866</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12013</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12472</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19154</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>16957</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>55882</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10401</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>106284</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42618</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26024</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4741</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4598</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4435</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4482</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4422</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4237</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4252</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4484</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4619</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4749</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4545</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4376</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4448</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4479</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4451</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4437</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4237</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4875</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4707</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4444</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4453</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42371</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15746</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6642</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10408</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10371</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
+        <v>13399</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>11166</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>15209</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10745</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1">
+        <v>11409</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>29283</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>19057</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1">
+        <v>19223</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14961</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1">
+        <v>12677</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1">
+        <v>11161</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19221</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="1">
+        <v>20819</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1">
+        <v>17037</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="5">
+        <v>42412</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15706</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2">
+        <v>15311</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1">
+        <v>12184</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1">
+        <v>11686</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10882</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15045</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="5">
+        <v>42395</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1">
+        <v>13052</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1">
+        <v>16667</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>28323</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>13116</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>23709</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1">
+        <v>18337</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1">
+        <v>15507</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1">
+        <v>19776</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
